--- a/Desiredoutput_final_new.xlsx
+++ b/Desiredoutput_final_new.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,16 +25,26 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00366092"/>
+        <bgColor rgb="00366092"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +52,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,59 +441,1709 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Employee Code</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Employee Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Company</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Department</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Day1 Punches</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Day1 Hours</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Day2 Punches</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Day2 Hours</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Day 1 Punches</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Day 1 Hours</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Day 2 Punches</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Day 2 Hours</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Total Hours</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>AW00035</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Trinath Majhi</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>11:23, 13:01, 13:36, 20:38</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>08:57, 12:55, 13:33, 21:33</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>8.119999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>AW00036</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Suresear Kumbha</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>RAGA TEX INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>PACKING - RTIPL</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>13:01, 13:01, 13:36, 13:36</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="H3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>DS1</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>sagar bindhani</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>RAGA TEX INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>PACKING - RTIPL</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>08:45, 13:02, 13:23, 19:06</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>08:45, 13:02, 13:24, 20:32</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>DW00006</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Padmalochan majhi</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>08:49, 12:58, 12:58, 13:36, 13:36, 20:36, 21:14, 06:41, 06:41</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>19.93</v>
+      </c>
+      <c r="G5" s="2" t="inlineStr"/>
+      <c r="H5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>19.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>DW00007</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Salkhan hembram</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>08:49, 13:00, 13:00, 13:37, 13:37, 20:36, 20:36, 20:36, 21:13, 06:41, 06:41, 06:41</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>19.93</v>
+      </c>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="H6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>19.93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>DW00009</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Prabhul Barik</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>08:22, 13:02, 13:32, 00:58</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="G7" s="2" t="inlineStr"/>
+      <c r="H7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>14.22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>DW00010</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Chandan</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>21:18, 07:04</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>21:29</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>DW00011</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Sambunath Jena</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>11:04, 13:02, 06:13</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>17:34, 17:57, 17:57, 17:57, 17:57, 17:57, 17:57, 17:57, 17:57, 17:57, 21:15</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>17.65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>DW00014</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Sudam Ray</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>08:41, 12:58, 13:37, 20:36, 21:14, 06:44, 06:44</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>17:53, 23:35, 23:35</t>
+        </is>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>DW00015</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Kundan kumar</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>09:11, 13:02, 13:31, 21:04</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>08:40, 13:03, 13:31, 21:35, 23:11</t>
+        </is>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>10.13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>DW00018</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Bideydhar Dehuri</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11:02, 11:02, 12:59, 12:59, 13:36, 15:46, 16:01, 16:01, 18:20, 18:37, 18:37, 20:37, 20:37, 20:37, 20:37, 07:07, 07:07</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="G12" s="2" t="inlineStr"/>
+      <c r="H12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>18.58</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>DW00060</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Sanatan Baunshulia</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>RAGA TEX INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>PACKING - RTIPL</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>08:45, 13:02, 13:19, 20:48, 00:59</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="G13" s="2" t="inlineStr"/>
+      <c r="H13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>14.23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>DW00061</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Kalakar Mahakud</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>RAGA TEX INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>PACKING - RTIPL</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>08:24, 20:30</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>08:19, 20:31</t>
+        </is>
+      </c>
+      <c r="H14" s="4" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>DW00064</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Narendra Tanti</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>RAGA TEX INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>PACKING - RTIPL</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>08:24, 13:02, 13:19, 20:49, 00:58</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="G15" s="2" t="inlineStr"/>
+      <c r="H15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4" t="n">
+        <v>14.22</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>DW00070</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Sunita Munda</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>RAGA TEX INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>PACKING - RTIPL</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>08:53, 13:05, 23:03</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>08:54, 18:35, 20:32</t>
+        </is>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>DW00089</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Angad Mallik</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>RAGA TEX INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>PACKING - RTIPL</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>08:54, 13:03, 21:03, 00:59</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="G17" s="2" t="inlineStr"/>
+      <c r="H17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <v>14.23</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>DW00090</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Purnachandra Naik</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>RAGA TEX INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>PACKING - RTIPL</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>09:08, 09:08, 09:08, 10:46, 10:46, 11:00, 11:00, 12:59, 12:59, 13:33, 13:33, 16:02, 16:02, 20:41, 20:41, 21:29, 07:04, 07:04</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>20.18</v>
+      </c>
+      <c r="G18" s="2" t="inlineStr"/>
+      <c r="H18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4" t="n">
+        <v>20.18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>DW00093</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Kishor kumar</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>RAGA TEX INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>PACKING - RTIPL</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>09:10, 09:10, 22:20, 22:28, 06:37, 06:37</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>17:34, 17:57, 18:06, 18:06, 21:29, 21:29</t>
+        </is>
+      </c>
+      <c r="H19" s="4" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="I19" s="4" t="n">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>DW00094</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Tapas Malik</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>RAGA TEX INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>PACKING - RTIPL</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>09:56, 10:45, 10:45, 11:08, 12:59, 13:36, 15:45, 16:01, 16:01, 18:20, 18:38, 18:38, 20:36, 21:14, 21:15</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="G20" s="2" t="inlineStr"/>
+      <c r="H20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4" t="n">
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>DW00095</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Ajaya Kumar Malik</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>RAGA TEX INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>PACKING - RTIPL</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>09:25, 10:46, 10:46, 11:05, 13:01, 13:01, 13:37, 13:37, 15:45, 16:00, 16:00, 18:21, 18:21, 18:39, 18:39, 20:37, 21:16, 21:16, 06:27, 06:27</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="G21" s="2" t="inlineStr"/>
+      <c r="H21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4" t="n">
+        <v>19.28</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>DW00096</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Shakti Malik</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>RAGA TEX INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>PACKING - RTIPL</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>11:02, 12:58, 12:58, 13:37, 13:37, 15:45, 16:01, 16:02, 18:38, 20:36, 21:16, 06:42</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="G22" s="2" t="inlineStr"/>
+      <c r="H22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <v>18.17</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>DW00099</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Niranjan</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>RAGA TEX INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>PACKING - RTIPL</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>08:53, 08:53, 10:45, 10:45, 11:00, 11:00, 12:58, 13:37, 13:37, 13:37, 15:45, 16:01, 16:01, 18:34, 18:34, 20:36, 21:14, 21:14, 21:14, 21:14</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>09:00, 18:14, 18:14, 21:20</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <v>10.48</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>DW00104</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Basudev patra</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>RAGA TEX INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>PACKING - RTIPL</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>09:00, 13:02, 13:17, 20:32</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="G24" s="2" t="inlineStr"/>
+      <c r="H24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4" t="n">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>DW00105</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Sidhanta patra</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>RAGA TEX INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>PACKING - RTIPL</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>08:55, 20:44</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>08:58, 20:52</t>
+        </is>
+      </c>
+      <c r="H25" s="4" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="I25" s="4" t="n">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>DW00106</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>Hemanta DAS</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>RAGA TEX INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>PACKING - RTIPL</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>08:59, 13:02, 13:22, 20:32, 20:49</t>
+        </is>
+      </c>
+      <c r="F26" s="4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="G26" s="2" t="inlineStr"/>
+      <c r="H26" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4" t="n">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>EW00031</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Ranjeet R</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>RAGA TEX INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>PACKING - RTIPL</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>09:01, 09:01, 09:01, 10:46, 11:01, 12:59, 13:37, 13:37, 15:46, 15:46, 16:01, 18:21, 18:35, 20:36, 20:36, 21:15, 21:15, 07:01, 07:01, 07:01</t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="G27" s="2" t="inlineStr"/>
+      <c r="H27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4" t="n">
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>EW00032</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Elaiyakannu</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>08:55, 08:55, 08:55, 10:47, 10:47, 10:59, 10:59, 12:59, 12:59, 13:36, 13:36, 15:46, 16:00, 18:20, 18:34, 20:36, 20:36, 20:36, 21:14, 21:14, 07:01, 07:01</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="n">
+        <v>20.27</v>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>13:34, 13:34, 23:25, 23:25</t>
+        </is>
+      </c>
+      <c r="H28" s="4" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="I28" s="4" t="n">
+        <v>20.27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>EW00044</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Ramakrishnan p</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>RAGA TEX INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>PACKING - RTIPL</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>09:01, 09:01, 13:01, 13:37, 13:37, 18:06, 18:06, 18:31, 20:42</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>08:59, 08:59, 11:06, 11:19, 13:34, 18:04, 18:11, 18:11, 20:45, 20:45</t>
+        </is>
+      </c>
+      <c r="H29" s="4" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="I29" s="4" t="n">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>EW00100</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Dhanush</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>RAGA TEX INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>PACKING - RTIPL</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>09:01, 09:01, 10:46, 11:01, 12:58, 12:58, 13:36, 13:37, 15:45, 16:02, 16:02, 18:19, 18:39, 20:37, 20:37, 21:16, 21:16, 06:35, 06:35</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="n">
+        <v>19.82</v>
+      </c>
+      <c r="G30" s="2" t="inlineStr"/>
+      <c r="H30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4" t="n">
+        <v>19.82</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>EW00101</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>Aanth</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>11:02, 11:02, 12:58, 12:58, 13:37, 13:37, 15:45, 16:02, 20:37, 20:37, 21:16, 21:16, 06:00, 06:00</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="n">
+        <v>17.47</v>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>12:58, 23:33</t>
+        </is>
+      </c>
+      <c r="H31" s="4" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="I31" s="4" t="n">
+        <v>17.47</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>EW00102</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Nivash g</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>RAGA TEX INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>PACKING - RTIPL</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>09:07, 09:07, 09:07, 10:46, 11:05, 13:00, 13:39, 13:39, 18:21, 18:37, 18:41, 18:42, 06:31, 06:31, 06:31, 06:31, 06:31</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="G32" s="2" t="inlineStr"/>
+      <c r="H32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4" t="n">
+        <v>19.65</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>KU00109</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>Tamilselvan</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>RAGA TEX INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>PACKING - RTIPL</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>09:06, 09:06, 09:06, 13:00, 13:01, 13:36, 13:36, 18:22, 18:22, 18:35, 18:35, 20:39, 20:39, 21:16, 21:16, 06:50, 06:50, 06:50, 06:50</t>
+        </is>
+      </c>
+      <c r="F33" s="4" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="G33" s="2" t="inlineStr"/>
+      <c r="H33" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4" t="n">
+        <v>19.98</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>KW00020</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Vinoth</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>08:45, 13:02, 13:20, 20:34, 21:02, 00:38</t>
+        </is>
+      </c>
+      <c r="F34" s="4" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>08:46, 13:02, 13:17, 20:34, 21:02</t>
+        </is>
+      </c>
+      <c r="H34" s="4" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="I34" s="4" t="n">
+        <v>13.88</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>KW00022</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>Sathish kumar</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>RAGA TEX INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>PACKING - RTIPL</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>08:45, 13:02, 13:22, 20:32, 20:53, 05:58</t>
+        </is>
+      </c>
+      <c r="F35" s="4" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>13:01, 13:13, 20:46, 20:59, 23:11</t>
+        </is>
+      </c>
+      <c r="H35" s="4" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="I35" s="4" t="n">
+        <v>19.22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>KW00024</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Satheesh kumar M</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>RAGA TEX INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>PACKING - RTIPL</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr"/>
+      <c r="F36" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>11:15, 23:25, 23:25</t>
+        </is>
+      </c>
+      <c r="H36" s="4" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="I36" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>KW00069</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Santhosh</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>09:05, 09:05, 09:05, 09:05, 09:05, 09:05, 09:05, 09:05, 09:05, 09:05, 09:05, 09:05, 09:05, 09:05, 09:06, 09:06, 09:06, 09:06, 09:06, 09:06, 09:06, 09:06, 09:06, 09:06, 09:06, 13:00, 13:00, 13:39, 13:39, 13:39, 18:21, 18:33, 18:33, 20:38, 21:18, 21:18, 07:01, 07:01, 07:01</t>
+        </is>
+      </c>
+      <c r="F37" s="4" t="n">
+        <v>20.18</v>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>12:56, 12:56, 12:56, 23:22, 23:22, 23:22</t>
+        </is>
+      </c>
+      <c r="H37" s="4" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="I37" s="4" t="n">
+        <v>20.18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>KW00088</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Muthukrishnan</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>RAGA TEX INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>PACKING - RTIPL</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>09:02, 09:02, 09:06, 09:06, 09:06, 09:06, 09:06, 09:06, 09:06, 09:06, 09:06, 09:06, 10:46, 10:46, 11:00, 11:00, 13:01, 13:38, 13:38, 15:46, 16:00, 16:00, 18:22, 18:34, 18:34, 20:38, 21:16, 06:35, 06:35</t>
+        </is>
+      </c>
+      <c r="F38" s="4" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="G38" s="2" t="inlineStr"/>
+      <c r="H38" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4" t="n">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>MW00033</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>Mathikumar K(Men)</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>Default</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>09:02, 01:13</t>
+        </is>
+      </c>
+      <c r="F39" s="4" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>08:49, 20:47</t>
+        </is>
+      </c>
+      <c r="H39" s="4" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="I39" s="4" t="n">
+        <v>14.43</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>MW00034</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Samuvel Raj S</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>RAGA TEX INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>MENDING - RTIPL</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>08:42, 01:14</t>
+        </is>
+      </c>
+      <c r="F40" s="4" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>08:45, 20:33</t>
+        </is>
+      </c>
+      <c r="H40" s="4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I40" s="4" t="n">
+        <v>14.48</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>ku1</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>Sivaramakrishnan</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>RAGA TEX INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>PACKING - RTIPL</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>08:41, 13:03, 13:27, 20:39, 20:54</t>
+        </is>
+      </c>
+      <c r="F41" s="4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>13:50, 20:46, 21:05, 23:10</t>
+        </is>
+      </c>
+      <c r="H41" s="4" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="I41" s="4" t="n">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>ku2</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>Vijayananth</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>RAGA TEX INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>PACKING - RTIPL</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>08:41, 13:03, 13:27, 20:39, 20:58</t>
+        </is>
+      </c>
+      <c r="F42" s="4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="G42" s="2" t="inlineStr"/>
+      <c r="H42" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4" t="n">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>ku3</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Dharan</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>RAGA TEX INDIA PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>PACKING - RTIPL</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>08:41, 13:03, 13:28, 20:39, 20:59</t>
+        </is>
+      </c>
+      <c r="F43" s="4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>13:50, 20:46, 21:08, 23:10</t>
+        </is>
+      </c>
+      <c r="H43" s="4" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="I43" s="4" t="n">
+        <v>10.25</v>
       </c>
     </row>
   </sheetData>
